--- a/fm.xlsx
+++ b/fm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2070,14 +2070,18 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>('Förmiddag', '9-11')</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Rudagatan 18</t>
@@ -2101,14 +2105,18 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>('Förmiddag', '9-11')</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>Rudagatan 18</t>
@@ -2167,7 +2175,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2176,7 +2184,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>license,woman</t>
+          <t>license</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2202,7 +2210,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2303,7 +2311,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3209,107 +3217,6 @@
       <c r="G83" t="inlineStr">
         <is>
           <t>21.066092511399347</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Individ 6</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>15</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>('Eftermiddag', '13-15')</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Rudagatan 18</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>64.72822387894983</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>21.066092511399347</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Individ 15</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>5</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>('Eftermiddag', '13-15')</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>smoker,dog,&gt;18</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Getargatan 13</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>64.72515988986189</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>21.081590156187488</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Individ 18</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>20</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>('Eftermiddag', '13-15')</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>license,&gt;18</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OmvÃ¤gen 11</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>64.722700477568</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>21.076038097904636</t>
         </is>
       </c>
     </row>

--- a/fm.xlsx
+++ b/fm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3220,6 +3220,612 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Individ 6</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Rudagatan 18</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>64.72822387894983</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>21.066092511399347</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Individ 15</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>smoker,dog,&gt;18</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Getargatan 13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>64.72515988986189</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>21.081590156187488</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Individ 18</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>20</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>license,&gt;18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OmvÃ¤gen 11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>64.722700477568</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>21.076038097904636</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Individ 20</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>BergsbyvÃ¤gen 19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>64.72253627756791</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>21.081495540234208</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Individ 21</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>&gt;18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Nybyggargatan 12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>64.72279765876095</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>21.096477997904646</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Individ 24</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>20</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Roddargatan 12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>64.71749269547423</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>21.09246261139871</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Individ 28</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>15</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>license,cat</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Lillgatan 7A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>64.71565457756343</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>21.0969892402338</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Individ 29</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>15</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Roddargatan 29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>64.7158097128137</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>21.098717311398616</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Individ 41</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SkelleftehamnsvÃ¤gen 113</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>64.7145646253258</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>21.16073439790411</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Individ 44</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>10</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>VÃ¤nskapsgatan 4</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>64.71183961148486</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>21.17002340955187</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Individ 59</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Lotsens grÃ¤nd 5</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>64.69594034903153</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>21.190897069067788</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Individ 62</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>60</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>VÃ¥gens grÃ¤nd 2</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>64.69386766364026</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>21.195669282562054</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Individ 69</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>45</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>BokgrÃ¤nd 7</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>64.71491237756301</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>21.158029382563345</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Individ 1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>30</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>('Förmiddag', '9-11')</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>license,dog,woman</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Rudagatan 51</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>64.73076905004987</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>21.062869127380175</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Individ 28</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>20</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>('Förmiddag', '9-11')</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>license,cat</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Lillgatan 7A</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>64.71565457756343</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>21.0969892402338</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Individ 29</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>40</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>('Förmiddag', '9-11')</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Roddargatan 29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>64.7158097128137</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>21.098717311398616</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Individ 37</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>MÃ¥bÃ¤rsgatan 12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>64.71651135982128</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>21.15559144023381</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Individ 38</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>45</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>('Eftermiddag', '13-15')</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Karagangatan 30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>64.71678347084324</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>21.15778882489306</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
